--- a/importfile/DataImportToDB.xlsx
+++ b/importfile/DataImportToDB.xlsx
@@ -9,6 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,52 +36,70 @@
     <t xml:space="preserve">Full Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Full Name 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 432433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhat 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nhat </t>
   </si>
   <si>
     <t xml:space="preserve">NTN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhat 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTN 7</t>
   </si>
 </sst>
 </file>
@@ -111,8 +134,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -184,13 +207,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="30"/>
   </cols>
@@ -205,16 +228,40 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,10 +269,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,10 +292,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -244,10 +315,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,43 +338,91 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -303,4 +434,219 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>